--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H2">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>591.433883409552</v>
+        <v>63.63554904726622</v>
       </c>
       <c r="R2">
-        <v>5322.904950685967</v>
+        <v>572.7199414253961</v>
       </c>
       <c r="S2">
-        <v>0.001227541423503981</v>
+        <v>0.0001567546942454426</v>
       </c>
       <c r="T2">
-        <v>0.001227541423503981</v>
+        <v>0.0001567546942454427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H3">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>558.8488300929794</v>
+        <v>110.8322637945146</v>
       </c>
       <c r="R3">
-        <v>5029.639470836814</v>
+        <v>997.490374150632</v>
       </c>
       <c r="S3">
-        <v>0.001159910021490647</v>
+        <v>0.0002730152860115182</v>
       </c>
       <c r="T3">
-        <v>0.001159910021490647</v>
+        <v>0.0002730152860115183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H4">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>655.4497080894931</v>
+        <v>136.9195912584835</v>
       </c>
       <c r="R4">
-        <v>5899.047372805438</v>
+        <v>1232.276321326352</v>
       </c>
       <c r="S4">
-        <v>0.00136040847552572</v>
+        <v>0.0003372767106636067</v>
       </c>
       <c r="T4">
-        <v>0.00136040847552572</v>
+        <v>0.0003372767106636068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J5">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>147696.7179246113</v>
+        <v>80129.52726800293</v>
       </c>
       <c r="R5">
-        <v>1329270.461321502</v>
+        <v>721165.7454120263</v>
       </c>
       <c r="S5">
-        <v>0.3065496320955546</v>
+        <v>0.1973846338246886</v>
       </c>
       <c r="T5">
-        <v>0.3065496320955545</v>
+        <v>0.1973846338246886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J6">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>139559.366373984</v>
@@ -818,10 +818,10 @@
         <v>1256034.297365856</v>
       </c>
       <c r="S6">
-        <v>0.2896602782958969</v>
+        <v>0.343779320404581</v>
       </c>
       <c r="T6">
-        <v>0.2896602782958969</v>
+        <v>0.3437793204045811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J7">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>163683.1662254054</v>
+        <v>172408.3831369378</v>
       </c>
       <c r="R7">
-        <v>1473148.496028648</v>
+        <v>1551675.44823244</v>
       </c>
       <c r="S7">
-        <v>0.3397300569146384</v>
+        <v>0.4246969467318965</v>
       </c>
       <c r="T7">
-        <v>0.3397300569146384</v>
+        <v>0.4246969467318965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H8">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I8">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J8">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>9517.608266234591</v>
+        <v>2768.604439770006</v>
       </c>
       <c r="R8">
-        <v>85658.47439611131</v>
+        <v>24917.43995793006</v>
       </c>
       <c r="S8">
-        <v>0.01975412421779785</v>
+        <v>0.006819957538519369</v>
       </c>
       <c r="T8">
-        <v>0.01975412421779785</v>
+        <v>0.006819957538519369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H9">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I9">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J9">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>8993.235582319981</v>
+        <v>4822.001258814252</v>
       </c>
       <c r="R9">
-        <v>80939.12024087984</v>
+        <v>43398.01132932826</v>
       </c>
       <c r="S9">
-        <v>0.01866577062677878</v>
+        <v>0.01187813013784375</v>
       </c>
       <c r="T9">
-        <v>0.01866577062677878</v>
+        <v>0.01187813013784376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H10">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I10">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J10">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>10547.77843273099</v>
+        <v>5956.98778316767</v>
       </c>
       <c r="R10">
-        <v>94930.00589457895</v>
+        <v>53612.89004850904</v>
       </c>
       <c r="S10">
-        <v>0.02189227792881316</v>
+        <v>0.01467396467155021</v>
       </c>
       <c r="T10">
-        <v>0.02189227792881316</v>
+        <v>0.01467396467155021</v>
       </c>
     </row>
   </sheetData>
